--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 1\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FB391-93EB-430E-A769-43BAF1F0875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E95FD-5055-4CDD-925F-DC0CEF409E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10476" yWindow="2712" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2712" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Start Time</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Wrote a quick email to www@NetBSD.org and spoke with secretary</t>
+  </si>
+  <si>
+    <t>10/21/2021 09:21 A.M.</t>
+  </si>
+  <si>
+    <t>10/21/2021 11:21 A.M.</t>
+  </si>
+  <si>
+    <t>Worked on background.tex and business_context.tex</t>
+  </si>
+  <si>
+    <t>10/25/2021 05:24 P.M.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,9 +132,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
@@ -453,12 +467,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -508,14 +522,71 @@
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>1.1574074074074073E-4</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D5" s="5">
-        <v>8.3449074074074078E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 1\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8E95FD-5055-4CDD-925F-DC0CEF409E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC85A173-DECC-4BD8-99FC-7818966D83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2712" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Start Time</t>
   </si>
@@ -81,7 +81,13 @@
     <t>Worked on background.tex and business_context.tex</t>
   </si>
   <si>
-    <t>10/25/2021 05:24 P.M.</t>
+    <t>10/27/2021 1:00 P.M.</t>
+  </si>
+  <si>
+    <t>10/27/2021 2:00 P.M.</t>
+  </si>
+  <si>
+    <t>Created gantt chart and made additional small changes to scope</t>
   </si>
 </sst>
 </file>
@@ -133,10 +139,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +460,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -467,12 +473,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -541,8 +547,8 @@
       <c r="C6" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D6" s="9">
-        <v>0.16666666666666666</v>
+      <c r="D6" s="8">
+        <v>0.17361111111111113</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -552,9 +558,18 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 1\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC85A173-DECC-4BD8-99FC-7818966D83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7978CBF2-24E4-4113-AC7B-1D1ABDF8337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Start Time</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>Created gantt chart and made additional small changes to scope</t>
+  </si>
+  <si>
+    <t>11/18/2021 4:00 P.M.</t>
+  </si>
+  <si>
+    <t>11/18/2021 6:00 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on introduction and thoroughly understand software requirements and features </t>
+  </si>
+  <si>
+    <t>11/19/2021 9:30 A.M.</t>
+  </si>
+  <si>
+    <t>11/19/2021 11:00 A.M.</t>
+  </si>
+  <si>
+    <t>Created use cases in models file</t>
   </si>
 </sst>
 </file>
@@ -460,7 +478,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -572,15 +590,38 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 1\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7978CBF2-24E4-4113-AC7B-1D1ABDF8337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0AAB8E-C983-41D3-BFA9-591BB615C974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Start Time</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Created use cases in models file</t>
+  </si>
+  <si>
+    <t>11/21/2021 5:00 P.M.</t>
+  </si>
+  <si>
+    <t>11/21/2021 8:00 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished writing description and external interfaces </t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -624,10 +633,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 1\netbsd-wifi-browser\docs\time_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0AAB8E-C983-41D3-BFA9-591BB615C974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94F1D2-0D07-4614-93F1-33059145EE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Start Time</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Finished writing description and external interfaces </t>
+  </si>
+  <si>
+    <t>01/12/2021 3:00 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Spent </t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -659,10 +665,17 @@
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94F1D2-0D07-4614-93F1-33059145EE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20291F-9E48-49CD-BB77-CA62C4F17C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Start Time</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>01/12/2021 3:00 P.M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Spent </t>
   </si>
 </sst>
 </file>
@@ -493,7 +490,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -668,14 +665,12 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
+      <c r="C13" s="5">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20291F-9E48-49CD-BB77-CA62C4F17C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68C3C89-9E5A-451A-8F05-BC03A303FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Start Time</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>01/12/2021 3:00 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up NetBSD on VM, wrote a makefile. Makefile had to be specific, took too much time. (I will probably work over 40 hours this quarter, but I will document all time spent). </t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -668,6 +671,12 @@
       <c r="C13" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D13" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68C3C89-9E5A-451A-8F05-BC03A303FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C149FA-537C-4CB8-8E2A-D4E971C3F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C149FA-537C-4CB8-8E2A-D4E971C3F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B281B5C-59C4-4EE4-A24B-D17377131905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Start Time</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t xml:space="preserve">Set up NetBSD on VM, wrote a makefile. Makefile had to be specific, took too much time. (I will probably work over 40 hours this quarter, but I will document all time spent). </t>
+  </si>
+  <si>
+    <t>01/17/20201 1:50 P.M.</t>
+  </si>
+  <si>
+    <t>01/12/2021 7:00 P.M.</t>
+  </si>
+  <si>
+    <t>01/17/2021 4:50 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Began work on designing command line interface. Further set up NetBSD specifics. Started Coding. </t>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -668,8 +680,11 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="5">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D13" s="8">
         <v>0.20833333333333334</v>
@@ -679,7 +694,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B281B5C-59C4-4EE4-A24B-D17377131905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B357F8D-5756-4BCD-A56E-12722F171829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Start Time</t>
   </si>
@@ -123,9 +123,6 @@
     <t xml:space="preserve">Set up NetBSD on VM, wrote a makefile. Makefile had to be specific, took too much time. (I will probably work over 40 hours this quarter, but I will document all time spent). </t>
   </si>
   <si>
-    <t>01/17/20201 1:50 P.M.</t>
-  </si>
-  <si>
     <t>01/12/2021 7:00 P.M.</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve">Began work on designing command line interface. Further set up NetBSD specifics. Started Coding. </t>
+  </si>
+  <si>
+    <t>01/17/2021 1:50 P.M.</t>
+  </si>
+  <si>
+    <t>1/18/2021 1:05 P.M.</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -681,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
         <v>0.20833333333333334</v>
@@ -695,10 +698,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5">
         <v>0.125</v>
@@ -707,7 +710,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B357F8D-5756-4BCD-A56E-12722F171829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7507EF1-24D1-4B7D-B70F-30AE57307323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Start Time</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>1/18/2021 1:05 P.M.</t>
+  </si>
+  <si>
+    <t>01/18/2021 4:05 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made no progress. Can't work on it any longer. </t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -717,6 +723,18 @@
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7507EF1-24D1-4B7D-B70F-30AE57307323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197824A-4C38-42A4-ABBC-B2614A3D1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Start Time</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">Made no progress. Can't work on it any longer. </t>
+  </si>
+  <si>
+    <t>1/20/2021 12:32 P.M.</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -736,6 +739,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197824A-4C38-42A4-ABBC-B2614A3D1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9FE47-4268-4282-8B68-3A7C0D0AE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Start Time</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>1/20/2021 12:32 P.M.</t>
+  </si>
+  <si>
+    <t>1/20/2021 3:19 P.M.</t>
+  </si>
+  <si>
+    <t>Started design of CLI and added many functions. Updated makefile and files for cli component.</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -743,6 +749,18 @@
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A9FE47-4268-4282-8B68-3A7C0D0AE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B06F50-E014-4458-89BE-A19587B6B89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Start Time</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Started design of CLI and added many functions. Updated makefile and files for cli component.</t>
+  </si>
+  <si>
+    <t>1/21/2021 10:23 A.M.</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -762,6 +765,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B06F50-E014-4458-89BE-A19587B6B89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99458117-F015-417F-B094-E63E1EBBD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Start Time</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>1/21/2021 10:23 A.M.</t>
+  </si>
+  <si>
+    <t>01/21/2021 11:14 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More protocol implementation. Will work on it later. </t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -765,9 +772,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99458117-F015-417F-B094-E63E1EBBD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544BEAB1-A15F-43AE-93CF-9481AFF1398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Start Time</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve">More protocol implementation. Will work on it later. </t>
+  </si>
+  <si>
+    <t>1/23/2021 4:00 P.M.</t>
+  </si>
+  <si>
+    <t>01/23/2021 4:30 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed a few things, did some error checking. Ready to start processing commands from API.  </t>
   </si>
 </sst>
 </file>
@@ -212,10 +221,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -546,12 +555,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -779,7 +788,7 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D17" s="8">
@@ -787,6 +796,23 @@
       </c>
       <c r="E17" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544BEAB1-A15F-43AE-93CF-9481AFF1398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6183CB-02E0-421B-AE0C-D48D9610CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Start Time</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed a few things, did some error checking. Ready to start processing commands from API.  </t>
+  </si>
+  <si>
+    <t>01/24/2021 1:00 P.M.</t>
+  </si>
+  <si>
+    <t>1/24/2021 11:00 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made it more secure. Can't break the cli, ready for API implementation. </t>
   </si>
 </sst>
 </file>
@@ -539,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -815,6 +824,23 @@
         <v>44</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6183CB-02E0-421B-AE0C-D48D9610CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEA95A-52E1-46D0-900C-C2BB572FE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Start Time</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">Made it more secure. Can't break the cli, ready for API implementation. </t>
+  </si>
+  <si>
+    <t>1/25/2021 11:08 A.M.</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -841,6 +844,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEA95A-52E1-46D0-900C-C2BB572FE7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA5F08-9911-4BAE-A1F3-992C27B20D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Start Time</t>
   </si>
@@ -123,12 +123,6 @@
     <t xml:space="preserve">Set up NetBSD on VM, wrote a makefile. Makefile had to be specific, took too much time. (I will probably work over 40 hours this quarter, but I will document all time spent). </t>
   </si>
   <si>
-    <t>01/12/2021 7:00 P.M.</t>
-  </si>
-  <si>
-    <t>01/17/2021 4:50 P.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Began work on designing command line interface. Further set up NetBSD specifics. Started Coding. </t>
   </si>
   <si>
@@ -138,42 +132,27 @@
     <t>1/18/2021 1:05 P.M.</t>
   </si>
   <si>
-    <t>01/18/2021 4:05 P.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Made no progress. Can't work on it any longer. </t>
   </si>
   <si>
     <t>1/20/2021 12:32 P.M.</t>
   </si>
   <si>
-    <t>1/20/2021 3:19 P.M.</t>
-  </si>
-  <si>
     <t>Started design of CLI and added many functions. Updated makefile and files for cli component.</t>
   </si>
   <si>
     <t>1/21/2021 10:23 A.M.</t>
   </si>
   <si>
-    <t>01/21/2021 11:14 A.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">More protocol implementation. Will work on it later. </t>
   </si>
   <si>
     <t>1/23/2021 4:00 P.M.</t>
   </si>
   <si>
-    <t>01/23/2021 4:30 P.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed a few things, did some error checking. Ready to start processing commands from API.  </t>
   </si>
   <si>
-    <t>01/24/2021 1:00 P.M.</t>
-  </si>
-  <si>
     <t>1/24/2021 11:00 A.M.</t>
   </si>
   <si>
@@ -181,6 +160,33 @@
   </si>
   <si>
     <t>1/25/2021 11:08 A.M.</t>
+  </si>
+  <si>
+    <t>01/24/2022 1:00 P.M.</t>
+  </si>
+  <si>
+    <t>01/23/2022 4:30 P.M.</t>
+  </si>
+  <si>
+    <t>01/21/2022 11:14 A.M.</t>
+  </si>
+  <si>
+    <t>01/20/2022 3:19 P.M.</t>
+  </si>
+  <si>
+    <t>01/18/2022 4:05 P.M.</t>
+  </si>
+  <si>
+    <t>01/17/2022 4:50 P.M.</t>
+  </si>
+  <si>
+    <t>01/12/2022 7:00 P.M.</t>
+  </si>
+  <si>
+    <t>01/25/2022 12:41 P.M.</t>
+  </si>
+  <si>
+    <t>Added some macros. Made it more secure. Will start API implementation during Milestone 2</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -730,7 +736,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
         <v>0.20833333333333334</v>
@@ -744,10 +750,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5">
         <v>0.125</v>
@@ -756,15 +762,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8">
         <v>0.125</v>
@@ -773,15 +779,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8">
         <v>0.125</v>
@@ -790,15 +796,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17" s="9">
         <v>2.0833333333333332E-2</v>
@@ -807,12 +813,12 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -824,15 +830,15 @@
         <v>0.625</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8">
         <v>8.3333333333333329E-2</v>
@@ -841,12 +847,24 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA5F08-9911-4BAE-A1F3-992C27B20D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036931FD-E0C0-4BA6-867C-8921803E7E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="56">
   <si>
     <t>Start Time</t>
   </si>
@@ -141,27 +141,15 @@
     <t>Started design of CLI and added many functions. Updated makefile and files for cli component.</t>
   </si>
   <si>
-    <t>1/21/2021 10:23 A.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">More protocol implementation. Will work on it later. </t>
   </si>
   <si>
-    <t>1/23/2021 4:00 P.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed a few things, did some error checking. Ready to start processing commands from API.  </t>
   </si>
   <si>
-    <t>1/24/2021 11:00 A.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Made it more secure. Can't break the cli, ready for API implementation. </t>
   </si>
   <si>
-    <t>1/25/2021 11:08 A.M.</t>
-  </si>
-  <si>
     <t>01/24/2022 1:00 P.M.</t>
   </si>
   <si>
@@ -187,6 +175,33 @@
   </si>
   <si>
     <t>Added some macros. Made it more secure. Will start API implementation during Milestone 2</t>
+  </si>
+  <si>
+    <t>01/30/2022 11:36 A.M.</t>
+  </si>
+  <si>
+    <t>1/25/2022 11:08 A.M.</t>
+  </si>
+  <si>
+    <t>1/24/2022 11:00 A.M.</t>
+  </si>
+  <si>
+    <t>1/23/2022 4:00 P.M.</t>
+  </si>
+  <si>
+    <t>1/21/2022 10:23 A.M.</t>
+  </si>
+  <si>
+    <t>1/20/2022 12:32 P.M.</t>
+  </si>
+  <si>
+    <t>1/18/2022 1:05 P.M.</t>
+  </si>
+  <si>
+    <t>01/17/2022 1:50 P.M.</t>
+  </si>
+  <si>
+    <t>01/12/2022 3:00 P.M.</t>
   </si>
 </sst>
 </file>
@@ -557,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -733,10 +748,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5">
         <v>0.20833333333333334</v>
@@ -750,10 +765,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5">
         <v>0.125</v>
@@ -767,10 +782,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8">
         <v>0.125</v>
@@ -784,10 +799,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8">
         <v>0.125</v>
@@ -801,10 +816,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="9">
         <v>2.0833333333333332E-2</v>
@@ -813,15 +828,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="8">
         <v>2.0833333333333332E-2</v>
@@ -830,15 +845,15 @@
         <v>0.625</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8">
         <v>8.3333333333333329E-2</v>
@@ -847,15 +862,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8">
         <v>6.458333333333334E-2</v>
@@ -864,7 +879,12 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036931FD-E0C0-4BA6-867C-8921803E7E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB1E48-7AAB-4629-8F3D-A823001ACB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Start Time</t>
   </si>
@@ -117,27 +117,15 @@
     <t xml:space="preserve">Finished writing description and external interfaces </t>
   </si>
   <si>
-    <t>01/12/2021 3:00 P.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Set up NetBSD on VM, wrote a makefile. Makefile had to be specific, took too much time. (I will probably work over 40 hours this quarter, but I will document all time spent). </t>
   </si>
   <si>
     <t xml:space="preserve">Began work on designing command line interface. Further set up NetBSD specifics. Started Coding. </t>
   </si>
   <si>
-    <t>01/17/2021 1:50 P.M.</t>
-  </si>
-  <si>
-    <t>1/18/2021 1:05 P.M.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Made no progress. Can't work on it any longer. </t>
   </si>
   <si>
-    <t>1/20/2021 12:32 P.M.</t>
-  </si>
-  <si>
     <t>Started design of CLI and added many functions. Updated makefile and files for cli component.</t>
   </si>
   <si>
@@ -202,6 +190,12 @@
   </si>
   <si>
     <t>01/12/2022 3:00 P.M.</t>
+  </si>
+  <si>
+    <t>01/30/2022 12:18 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent some time trying to get api methods to run but having some difficulty. Will meet with team this week to start getting the api to interact with the cli. </t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -748,10 +742,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <v>0.20833333333333334</v>
@@ -760,15 +754,15 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>0.125</v>
@@ -777,15 +771,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8">
         <v>0.125</v>
@@ -794,15 +788,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8">
         <v>0.125</v>
@@ -811,15 +805,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="9">
         <v>2.0833333333333332E-2</v>
@@ -828,15 +822,15 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8">
         <v>2.0833333333333332E-2</v>
@@ -845,15 +839,15 @@
         <v>0.625</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8">
         <v>8.3333333333333329E-2</v>
@@ -862,15 +856,15 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8">
         <v>6.458333333333334E-2</v>
@@ -879,12 +873,24 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB1E48-7AAB-4629-8F3D-A823001ACB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ECC95E-F1EA-4E3F-8365-DE63CE2C3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Start Time</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spent some time trying to get api methods to run but having some difficulty. Will meet with team this week to start getting the api to interact with the cli. </t>
+  </si>
+  <si>
+    <t>02/02/2022 11:18 A.M.</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -893,6 +896,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ECC95E-F1EA-4E3F-8365-DE63CE2C3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C218743A-0080-4587-856E-D5FD9BA11D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Start Time</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>02/02/2022 11:18 A.M.</t>
+  </si>
+  <si>
+    <t>02/02/2022 2:36 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally connected and started testing api methods on wwu netbsd machine. No need for virtual machine at all. </t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -900,6 +906,18 @@
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C218743A-0080-4587-856E-D5FD9BA11D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510923CC-5D9C-4C19-9A70-6E1CB676B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Start Time</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finally connected and started testing api methods on wwu netbsd machine. No need for virtual machine at all. </t>
+  </si>
+  <si>
+    <t>02/02/2022 6:28 P.M.</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -919,6 +922,11 @@
         <v>56</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510923CC-5D9C-4C19-9A70-6E1CB676B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D1723-7584-4026-865F-6D1E803685F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Finally connected and started testing api methods on wwu netbsd machine. No need for virtual machine at all. </t>
   </si>
   <si>
-    <t>02/02/2022 6:28 P.M.</t>
+    <t>02/03/2022 11:00 A.M.</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D1723-7584-4026-865F-6D1E803685F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E24CA5-F0D6-4F4B-9219-80AEC58B1908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Start Time</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>02/03/2022 11:00 A.M.</t>
+  </si>
+  <si>
+    <t>02/03/2022 12:30 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent time working to compile program. Still getting errors. Will attempt to get help tomorrow. </t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -926,6 +932,18 @@
       <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E24CA5-F0D6-4F4B-9219-80AEC58B1908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D294B979-64B2-4824-A8B3-CBE60741469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Start Time</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spent time working to compile program. Still getting errors. Will attempt to get help tomorrow. </t>
+  </si>
+  <si>
+    <t>02/05/2022 11:18 A.M.</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -945,6 +948,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D294B979-64B2-4824-A8B3-CBE60741469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58760B98-2C99-427B-B4EA-5660A4C1C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Start Time</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>02/05/2022 11:18 A.M.</t>
+  </si>
+  <si>
+    <t>02/05/2022 12:31 P.M.</t>
+  </si>
+  <si>
+    <t>Worked on api implementation with cli file</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -952,6 +958,18 @@
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58760B98-2C99-427B-B4EA-5660A4C1C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA466A-8EA0-41B3-B6D5-C3E0D5DC2D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Start Time</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Worked on api implementation with cli file</t>
+  </si>
+  <si>
+    <t>02/06/2022 12:35 P.M.</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -971,6 +974,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AA466A-8EA0-41B3-B6D5-C3E0D5DC2D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C723E5-90DF-480C-9067-6E0D8247C677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Start Time</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>02/06/2022 12:35 P.M.</t>
+  </si>
+  <si>
+    <t>02/06/2022 3:06 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on more api implemention, working through config auto </t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -978,6 +984,18 @@
       <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1.1527777777777779</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C723E5-90DF-480C-9067-6E0D8247C677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88EB6A7-928C-420B-AF29-20A2CDB32272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Start Time</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t xml:space="preserve">Worked on more api implemention, working through config auto </t>
+  </si>
+  <si>
+    <t>02/10/2022 10:51 A.M.</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -997,6 +1000,11 @@
         <v>65</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88EB6A7-928C-420B-AF29-20A2CDB32272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11FFA77-EA0A-413E-99D5-CC1C627FC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Start Time</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>02/10/2022 10:51 A.M.</t>
+  </si>
+  <si>
+    <t>02/10/2022 11:02 A.M.</t>
+  </si>
+  <si>
+    <t>Completed milestone write up for miltestone 3</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1010,18 @@
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.1597222222222221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11FFA77-EA0A-413E-99D5-CC1C627FC2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B648CB5-CE62-4BD4-A312-0687994371A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Start Time</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Completed milestone write up for miltestone 3</t>
+  </si>
+  <si>
+    <t>02/14/2022 10:27 A.M.</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1023,6 +1026,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B648CB5-CE62-4BD4-A312-0687994371A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C232E80-D2D3-4B40-9958-27DF5B3CD9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
     <t>Completed milestone write up for miltestone 3</t>
   </si>
   <si>
-    <t>02/14/2022 10:27 A.M.</t>
+    <t>02/25/2022 12:16 P.M.</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C232E80-D2D3-4B40-9958-27DF5B3CD9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3162C3B1-C79B-4B2C-A0DC-204D62C2E1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Start Time</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>02/25/2022 12:16 P.M.</t>
+  </si>
+  <si>
+    <t>02/25/2022 12:45 P.M.</t>
+  </si>
+  <si>
+    <t>Completed milestone 4 write - up and peer review</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1036,18 @@
       <c r="A27" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.1805555555555556</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3162C3B1-C79B-4B2C-A0DC-204D62C2E1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCEBF19-45E5-4EBD-8C60-61FFB6BDA1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Start Time</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Completed milestone 4 write - up and peer review</t>
+  </si>
+  <si>
+    <t>03/02/2022 4:24 P.M.</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1052,11 @@
         <v>71</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCEBF19-45E5-4EBD-8C60-61FFB6BDA1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F1C5F-3D27-40CF-B824-DA9521CAC8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
     <t>Completed milestone 4 write - up and peer review</t>
   </si>
   <si>
-    <t>03/02/2022 4:24 P.M.</t>
+    <t>03/03/2022 10:53 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F1C5F-3D27-40CF-B824-DA9521CAC8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BECF37C-E29C-4142-BF00-60220C450233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Start Time</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>03/03/2022 10:53 A.M.</t>
+  </si>
+  <si>
+    <t>03/03/2022 4:35 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented all methods associated with cli. Tested methods on netbsd operating system. Still need to do additional testing. </t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1062,18 @@
       <c r="A28" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BECF37C-E29C-4142-BF00-60220C450233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5882C14-C479-497E-8EBD-4795298FE9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Start Time</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implemented all methods associated with cli. Tested methods on netbsd operating system. Still need to do additional testing. </t>
+  </si>
+  <si>
+    <t>03/05/2022 12:38 P.M.</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1078,11 @@
         <v>74</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5882C14-C479-497E-8EBD-4795298FE9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369287F5-34F6-4097-B335-E0EC8B0458A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="1656" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Implemented all methods associated with cli. Tested methods on netbsd operating system. Still need to do additional testing. </t>
   </si>
   <si>
-    <t>03/05/2022 12:38 P.M.</t>
+    <t>03/06/2022 10:08 A.M.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369287F5-34F6-4097-B335-E0EC8B0458A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D896C8-905F-4377-AD1A-25D42169650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="264" yWindow="1656" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Start Time</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>03/06/2022 10:08 A.M.</t>
+  </si>
+  <si>
+    <t>Did some testing. Added comments. Additional testing still required. Added help method to display commands.</t>
+  </si>
+  <si>
+    <t>03/06/2022 1:38 P.M.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1082,6 +1088,18 @@
       <c r="A29" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.5625</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D896C8-905F-4377-AD1A-25D42169650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E6A47-9DBB-401C-8E03-407433368EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="1656" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Start Time</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>03/06/2022 1:38 P.M.</t>
+  </si>
+  <si>
+    <t>03/06/2022 3:08 P.M.</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1101,6 +1104,11 @@
         <v>76</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E6A47-9DBB-401C-8E03-407433368EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43341F2E-5CEF-457C-909A-E118C233775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Start Time</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>03/06/2022 3:08 P.M.</t>
+  </si>
+  <si>
+    <t>03/06/2022 4:38 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited some commands. Still testing interface but will likely save a majority of testing for next quarter. </t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1114,18 @@
       <c r="A30" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.625</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43341F2E-5CEF-457C-909A-E118C233775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94440EE7-A94D-4AD2-8FFA-1DD77E6F5048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Start Time</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t xml:space="preserve">Edited some commands. Still testing interface but will likely save a majority of testing for next quarter. </t>
+  </si>
+  <si>
+    <t>03/09/2022 11:05 A.M.</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1130,11 @@
         <v>80</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94440EE7-A94D-4AD2-8FFA-1DD77E6F5048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69F88C-FCA5-4425-ADD4-FB3902C5255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Edited some commands. Still testing interface but will likely save a majority of testing for next quarter. </t>
   </si>
   <si>
-    <t>03/09/2022 11:05 A.M.</t>
+    <t>03/09/2022 4:09 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69F88C-FCA5-4425-ADD4-FB3902C5255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110D7F59-427D-4EB2-8FAF-A209B23C9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Start Time</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>03/09/2022 4:09 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempted to find the source of the seg fault but no luck. Doesn't set fault when working on a separate machine. Will need to debug and test next quarter. Spent a considerable amount of time going through my code. </t>
+  </si>
+  <si>
+    <t>3/9/2022 5:12 P.M.</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1134,6 +1140,18 @@
       <c r="A31" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="B31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 2\netbsd-wifi-browser\docs\time_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110D7F59-427D-4EB2-8FAF-A209B23C9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB61608-2536-49EE-A851-71C51D9953BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Start Time</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>3/9/2022 5:12 P.M.</t>
+  </si>
+  <si>
+    <t>04/03/2022 11:23 A.M.</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1153,6 +1156,11 @@
         <v>82</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB61608-2536-49EE-A851-71C51D9953BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE58AC-CCB1-400E-9E85-12F5F10BEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <t>3/9/2022 5:12 P.M.</t>
   </si>
   <si>
-    <t>04/03/2022 11:23 A.M.</t>
+    <t>04/04/2022 10:45 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE58AC-CCB1-400E-9E85-12F5F10BEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C5AEC-8666-47D6-A532-57A0444A4340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <t>3/9/2022 5:12 P.M.</t>
   </si>
   <si>
-    <t>04/04/2022 10:45 P.M.</t>
+    <t>04/04/2022 1:36 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C5AEC-8666-47D6-A532-57A0444A4340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF3E59-BEED-4C85-BD0D-91EB3E8476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <t>3/9/2022 5:12 P.M.</t>
   </si>
   <si>
-    <t>04/04/2022 1:36 P.M.</t>
+    <t>04/05/2022 10:31 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF3E59-BEED-4C85-BD0D-91EB3E8476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706401B1-FBD8-44A1-8805-920A3AF74C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1156,10 +1156,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706401B1-FBD8-44A1-8805-920A3AF74C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F68C75-9AFD-4095-AF6C-2709C52E5FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Start Time</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>04/05/2022 10:31 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added some methods from API. Went through code. </t>
+  </si>
+  <si>
+    <t>04/05/2022 2:31 P.M.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1156,12 +1162,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F68C75-9AFD-4095-AF6C-2709C52E5FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA6023-CCF2-48A3-96B9-F6FE95FBA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Start Time</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>04/05/2022 2:31 P.M.</t>
+  </si>
+  <si>
+    <t>04/09/2022 9:25 A.M.</t>
   </si>
 </sst>
 </file>
@@ -665,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1179,6 +1182,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA6023-CCF2-48A3-96B9-F6FE95FBA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA27F0-CA5C-4732-A233-98E0E77A0045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Start Time</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>04/09/2022 9:25 A.M.</t>
+  </si>
+  <si>
+    <t>04/09/2022 11:38 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished adding API methods. Did some research on the makefile. </t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1186,6 +1192,18 @@
       <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="8">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA27F0-CA5C-4732-A233-98E0E77A0045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8405A-F36C-4145-894B-06DF3CFE8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Start Time</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finished adding API methods. Did some research on the makefile. </t>
+  </si>
+  <si>
+    <t>04/09/2022 2:37 P.M.</t>
   </si>
 </sst>
 </file>
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1205,6 +1208,11 @@
         <v>89</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8405A-F36C-4145-894B-06DF3CFE8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990EA00E-E6CC-490C-A870-33C4594ED985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Start Time</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>04/09/2022 2:37 P.M.</t>
+  </si>
+  <si>
+    <t>04/09/2022 4:57 P.M.</t>
+  </si>
+  <si>
+    <t>Added some comments. Couldn't get makefile to work yet. Will meet with you later this week.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1212,6 +1218,18 @@
       <c r="A35" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990EA00E-E6CC-490C-A870-33C4594ED985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD2F0C-0273-4157-B88F-A3DF4D264B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Start Time</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Added some comments. Couldn't get makefile to work yet. Will meet with you later this week.</t>
+  </si>
+  <si>
+    <t>04/15/2022 2:25 P.M.</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1231,6 +1234,11 @@
         <v>92</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD2F0C-0273-4157-B88F-A3DF4D264B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F9BA7-DC07-4BC3-B8AE-52A7ADC96CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
     <t>Added some comments. Couldn't get makefile to work yet. Will meet with you later this week.</t>
   </si>
   <si>
-    <t>04/15/2022 2:25 P.M.</t>
+    <t>04/16/2022 9:55 A.M.</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F9BA7-DC07-4BC3-B8AE-52A7ADC96CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756BED9-F3CA-4E13-A552-F67DE20F210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Start Time</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>04/16/2022 9:55 A.M.</t>
+  </si>
+  <si>
+    <t>04/16/2022 11:55 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed the arguments for the commands. Did some research on getopt_long. </t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1238,6 +1244,18 @@
       <c r="A36" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756BED9-F3CA-4E13-A552-F67DE20F210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7BC68B-242B-42A7-B533-72BEBFD8137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Start Time</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed the arguments for the commands. Did some research on getopt_long. </t>
+  </si>
+  <si>
+    <t>04/17/2022 9:46 A.M.</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1257,6 +1260,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7BC68B-242B-42A7-B533-72BEBFD8137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED6BF4-DC20-462D-986B-CDF21039879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">Fixed the arguments for the commands. Did some research on getopt_long. </t>
   </si>
   <si>
-    <t>04/17/2022 9:46 A.M.</t>
+    <t>04/18/2022 2:44 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED6BF4-DC20-462D-986B-CDF21039879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93228D73-F590-410E-BF09-2110A707A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">Fixed the arguments for the commands. Did some research on getopt_long. </t>
   </si>
   <si>
-    <t>04/18/2022 2:44 P.M.</t>
+    <t>04/19/2022 9:41 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93228D73-F590-410E-BF09-2110A707A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D77A74-A359-4EEA-8209-762A397B1AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">Fixed the arguments for the commands. Did some research on getopt_long. </t>
   </si>
   <si>
-    <t>04/19/2022 9:41 A.M.</t>
+    <t>04/19/2022 10:45 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D77A74-A359-4EEA-8209-762A397B1AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC7F11-918A-4D9F-9CE6-04225C66EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Start Time</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>04/19/2022 10:45 A.M.</t>
+  </si>
+  <si>
+    <t>04/19/2022 12:45 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added some comments and thoroughly went through code. Still cannot test and connect to wpa_supplicant. Not an error for the cli. </t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1264,6 +1270,18 @@
       <c r="A37" s="7" t="s">
         <v>96</v>
       </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC7F11-918A-4D9F-9CE6-04225C66EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C3940-45D6-4B6A-B57F-95C7F109D0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Start Time</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added some comments and thoroughly went through code. Still cannot test and connect to wpa_supplicant. Not an error for the cli. </t>
+  </si>
+  <si>
+    <t>04/19/2022 9:02 A.M.</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1283,6 +1286,11 @@
         <v>98</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C3940-45D6-4B6A-B57F-95C7F109D0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39870D91-1F67-4B81-9741-1CC5039E3CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">Added some comments and thoroughly went through code. Still cannot test and connect to wpa_supplicant. Not an error for the cli. </t>
   </si>
   <si>
-    <t>04/19/2022 9:02 A.M.</t>
+    <t>04/23/2022 2:25 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39870D91-1F67-4B81-9741-1CC5039E3CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9B3B6-A74B-43DD-B1BD-DCF72ACFD4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Start Time</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>04/23/2022 2:25 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked through getting wpa_supplicant to run. Attempted to set up VM, restarted the WWU NetBSD machine through Linux, worked for the initial connect, wpa_supplicant directory was empty. Still debugging. </t>
+  </si>
+  <si>
+    <t>4/23/2022 4:30 P.M.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,7 +714,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1290,6 +1297,18 @@
       <c r="A38" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="B38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9B3B6-A74B-43DD-B1BD-DCF72ACFD4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15623A4-4DC7-4BC2-8A14-6D277B5AF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Start Time</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>4/23/2022 4:30 P.M.</t>
+  </si>
+  <si>
+    <t>04/24/2022 4:32 P.M.</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -727,12 +730,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1297,7 +1300,7 @@
       <c r="A38" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C38" s="8">
@@ -1308,6 +1311,11 @@
       </c>
       <c r="E38" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15623A4-4DC7-4BC2-8A14-6D277B5AF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C56EE3-913B-4366-BD5D-5ED18FD4A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Start Time</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>04/24/2022 4:32 P.M.</t>
+  </si>
+  <si>
+    <t>04/24/2022 5:38 P.M.</t>
+  </si>
+  <si>
+    <t>Fixed an error in the add entry method. Went through code more thoroughly. Can't do any testing until tomorrow when Dylan initializes wpa_supplicant since I had to restart the machine.</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1323,18 @@
       <c r="A39" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="8">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C56EE3-913B-4366-BD5D-5ED18FD4A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408AB1A7-5E42-4ED9-BAE3-63A644A768A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Start Time</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Fixed an error in the add entry method. Went through code more thoroughly. Can't do any testing until tomorrow when Dylan initializes wpa_supplicant since I had to restart the machine.</t>
+  </si>
+  <si>
+    <t>04/26/2022 8:44 A.M.</t>
   </si>
 </sst>
 </file>
@@ -720,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1336,6 +1339,11 @@
         <v>104</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408AB1A7-5E42-4ED9-BAE3-63A644A768A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE3E1A-97FE-4BC3-89B5-7AC1BDFF9D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Start Time</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>04/26/2022 8:44 A.M.</t>
+  </si>
+  <si>
+    <t>04/26/2022 9:49 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally started testing cli. Still in development mode, todo list is written in comments. Planning to implement everything in todo the following week. </t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1343,6 +1349,18 @@
       <c r="A40" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="8">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE3E1A-97FE-4BC3-89B5-7AC1BDFF9D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B14A8-82B0-4F2E-9628-1601F23D9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Start Time</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finally started testing cli. Still in development mode, todo list is written in comments. Planning to implement everything in todo the following week. </t>
+  </si>
+  <si>
+    <t>04/29/2022 8:39 A.M.</t>
   </si>
 </sst>
 </file>
@@ -729,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1365,11 @@
         <v>107</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B14A8-82B0-4F2E-9628-1601F23D9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D6EAD-6BF1-47A5-BA38-0B600659E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     <t xml:space="preserve">Finally started testing cli. Still in development mode, todo list is written in comments. Planning to implement everything in todo the following week. </t>
   </si>
   <si>
-    <t>04/29/2022 8:39 A.M.</t>
+    <t>04/29/2022 5:08 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D6EAD-6BF1-47A5-BA38-0B600659E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20633D3E-F6C1-4F08-9345-BCF94DE495E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
     <t xml:space="preserve">Finally started testing cli. Still in development mode, todo list is written in comments. Planning to implement everything in todo the following week. </t>
   </si>
   <si>
-    <t>04/29/2022 5:08 P.M.</t>
+    <t>04/30/2022 11:16 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20633D3E-F6C1-4F08-9345-BCF94DE495E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A421FBA-A45D-4C4E-ABEE-AC66218CD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A421FBA-A45D-4C4E-ABEE-AC66218CD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB70B17E-C275-465E-B89A-6E21068B128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Start Time</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>04/30/2022 11:16 A.M.</t>
+  </si>
+  <si>
+    <t>04/30/2022 2:16 P.M.</t>
+  </si>
+  <si>
+    <t>Added correct implementation of methods.</t>
   </si>
 </sst>
 </file>
@@ -735,7 +741,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1375,18 @@
       <c r="A41" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB70B17E-C275-465E-B89A-6E21068B128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594C22C-EE6F-466A-94A3-621838C51AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Start Time</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Added correct implementation of methods.</t>
+  </si>
+  <si>
+    <t>04/30/2022 3:35 P.M.</t>
   </si>
 </sst>
 </file>
@@ -738,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1388,6 +1391,11 @@
         <v>110</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594C22C-EE6F-466A-94A3-621838C51AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB470B-A534-4838-B9B8-8503DC839198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
     <t>Added correct implementation of methods.</t>
   </si>
   <si>
-    <t>04/30/2022 3:35 P.M.</t>
+    <t>04/30/2022 9:33 A.M.</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB470B-A534-4838-B9B8-8503DC839198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBFA1EE-96B4-42EE-8ACC-A7865C07D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Start Time</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>04/30/2022 9:33 A.M.</t>
+  </si>
+  <si>
+    <t>04/30/2022 10:46 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did some testing on getopt, working to implement it. Fixed help methods, fixed program loop. </t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1395,6 +1401,18 @@
       <c r="A42" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="8">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBFA1EE-96B4-42EE-8ACC-A7865C07D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E7829-83EB-4025-B6EE-A84F700AC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Start Time</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">Did some testing on getopt, working to implement it. Fixed help methods, fixed program loop. </t>
+  </si>
+  <si>
+    <t>05/06/2022 5:15 P.M.</t>
   </si>
 </sst>
 </file>
@@ -747,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1414,6 +1417,11 @@
         <v>113</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E7829-83EB-4025-B6EE-A84F700AC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A418AB7-2AFA-45BA-B6E9-4F3C18DC22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">Did some testing on getopt, working to implement it. Fixed help methods, fixed program loop. </t>
   </si>
   <si>
-    <t>05/06/2022 5:15 P.M.</t>
+    <t>05/08/2022 9:50 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A418AB7-2AFA-45BA-B6E9-4F3C18DC22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88228E6-DB22-45DC-92B6-6E07727980A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Start Time</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>05/08/2022 9:50 A.M.</t>
+  </si>
+  <si>
+    <t>05/08/2022 12:53 P.M.</t>
+  </si>
+  <si>
+    <t>Fixed the help syntax and made the code a little neater. Went through some theories on what I can improve in the program.</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1421,6 +1427,18 @@
       <c r="A43" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1.0027777777777778</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88228E6-DB22-45DC-92B6-6E07727980A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E48EB4-F8DE-43C5-AE61-D2B20184DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Start Time</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>Fixed the help syntax and made the code a little neater. Went through some theories on what I can improve in the program.</t>
+  </si>
+  <si>
+    <t>05/08/2022 1:37 P.M.</t>
   </si>
 </sst>
 </file>
@@ -756,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1440,6 +1443,11 @@
         <v>116</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E48EB4-F8DE-43C5-AE61-D2B20184DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDC144-8A2B-4429-93DD-344E450A9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
     <t>Fixed the help syntax and made the code a little neater. Went through some theories on what I can improve in the program.</t>
   </si>
   <si>
-    <t>05/08/2022 1:37 P.M.</t>
+    <t>05/10/2022 10:28 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDC144-8A2B-4429-93DD-344E450A9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B3BA8-F5DE-4AB8-8820-8F9B9A122A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
     <t>Fixed the help syntax and made the code a little neater. Went through some theories on what I can improve in the program.</t>
   </si>
   <si>
-    <t>05/10/2022 10:28 A.M.</t>
+    <t>05/10/2022 11:38 A.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B3BA8-F5DE-4AB8-8820-8F9B9A122A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F13EC-DE90-4D81-85AC-AC0B82FCDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
     <t>Fixed the help syntax and made the code a little neater. Went through some theories on what I can improve in the program.</t>
   </si>
   <si>
-    <t>05/10/2022 11:38 A.M.</t>
+    <t>05/10/2022 1:06 P.M.</t>
   </si>
 </sst>
 </file>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F13EC-DE90-4D81-85AC-AC0B82FCDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6082C536-9ED3-477B-9A06-79901372F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Start Time</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>05/10/2022 1:06 P.M.</t>
+  </si>
+  <si>
+    <t>05/10/2022 2:22 P.M.</t>
+  </si>
+  <si>
+    <t>Fixed correct implementation of methods by requirement. Waiting to test since there is an error in surf_init()</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1447,6 +1453,18 @@
       <c r="A44" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6082C536-9ED3-477B-9A06-79901372F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B35BB-AFC7-40CE-B1A5-8025B3BE7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Start Time</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Fixed correct implementation of methods by requirement. Waiting to test since there is an error in surf_init()</t>
+  </si>
+  <si>
+    <t>05/12/2022 9:12 A.M.</t>
   </si>
 </sst>
 </file>
@@ -765,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1469,11 @@
         <v>119</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B35BB-AFC7-40CE-B1A5-8025B3BE7D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244E649-FAE3-40EC-B1B6-50305EB13A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Start Time</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>05/12/2022 9:12 A.M.</t>
+  </si>
+  <si>
+    <t>05/12/2022 1:12 P.M.</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1473,6 +1476,9 @@
       <c r="A45" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244E649-FAE3-40EC-B1B6-50305EB13A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EEB365-A9B0-4C32-BEC1-A884268AA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Start Time</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>05/12/2022 9:12 A.M.</t>
-  </si>
-  <si>
-    <t>05/12/2022 1:12 P.M.</t>
   </si>
 </sst>
 </file>
@@ -1476,9 +1473,6 @@
       <c r="A45" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EEB365-A9B0-4C32-BEC1-A884268AA892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398BE24-7FAD-4898-904D-D3399E527027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Start Time</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>05/12/2022 9:12 A.M.</t>
+  </si>
+  <si>
+    <t>05/12/2022 1:16 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added correct implementation of methods. I really spend most of my time reorganizing the CLI since I really didn't know what you were expecting. Methods now have names such as 'connect', 'disconnect', 'edit', 'add', 'forget', 'configure', 'list'. Added some comments and fixed the syntax. </t>
   </si>
 </sst>
 </file>
@@ -771,7 +777,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1473,6 +1479,18 @@
       <c r="A45" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398BE24-7FAD-4898-904D-D3399E527027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926870E-9505-46E9-A99F-D84A055E55CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Start Time</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added correct implementation of methods. I really spend most of my time reorganizing the CLI since I really didn't know what you were expecting. Methods now have names such as 'connect', 'disconnect', 'edit', 'add', 'forget', 'configure', 'list'. Added some comments and fixed the syntax. </t>
+  </si>
+  <si>
+    <t>05/19/2022 5:02 P.M.</t>
   </si>
 </sst>
 </file>
@@ -774,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1495,11 @@
         <v>122</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926870E-9505-46E9-A99F-D84A055E55CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBD5D9-C965-4CB3-870B-DB9811DFA94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Start Time</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>05/19/2022 5:02 P.M.</t>
+  </si>
+  <si>
+    <t>05/19/2022 6:22 P.M.</t>
+  </si>
+  <si>
+    <t>Fixed help method syntax to be much more neat</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1499,6 +1505,18 @@
       <c r="A46" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="8">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1.2777777777777779</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BBD5D9-C965-4CB3-870B-DB9811DFA94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BC0E9-69D8-497A-A4A8-7FF3F253A980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Start Time</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Fixed help method syntax to be much more neat</t>
+  </si>
+  <si>
+    <t>02/20/2022 2:49 P.M.</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1518,6 +1521,11 @@
         <v>125</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7BC0E9-69D8-497A-A4A8-7FF3F253A980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B6C1F-EDF2-4443-926C-3C31710E000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Start Time</t>
   </si>
@@ -414,7 +414,13 @@
     <t>Fixed help method syntax to be much more neat</t>
   </si>
   <si>
-    <t>02/20/2022 2:49 P.M.</t>
+    <t>05/20/2022 4:40 P.M.</t>
+  </si>
+  <si>
+    <t>05/20/2022 2:50 P.M.</t>
+  </si>
+  <si>
+    <t>Made code way neater. Added additional method to print current connection.</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1529,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
         <v>126</v>
+      </c>
+      <c r="C47" s="8">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1.3541666666666667</v>
+      </c>
+      <c r="E47" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B6C1F-EDF2-4443-926C-3C31710E000F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF677C0-6AFD-411F-9716-10390A0F1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Start Time</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Made code way neater. Added additional method to print current connection.</t>
+  </si>
+  <si>
+    <t>05/28/2022 10:40 P.M.</t>
   </si>
 </sst>
 </file>
@@ -792,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1544,6 +1547,11 @@
         <v>128</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF677C0-6AFD-411F-9716-10390A0F1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2530F7-F7DF-4FAF-AE64-B6C7C54D8BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Start Time</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>05/28/2022 10:40 P.M.</t>
+  </si>
+  <si>
+    <t>05/28/2022 11:30 A.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested cli and implement clear method. Just need to test and get the current connection method to work. </t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1557,18 @@
       <c r="A48" s="7" t="s">
         <v>129</v>
       </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="8">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1.3888888888888891</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2530F7-F7DF-4FAF-AE64-B6C7C54D8BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57649426-FE82-48D9-A4AF-269F69A0E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Start Time</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tested cli and implement clear method. Just need to test and get the current connection method to work. </t>
+  </si>
+  <si>
+    <t>05/28/2022 1:27 P.M.</t>
   </si>
 </sst>
 </file>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1573,11 @@
         <v>131</v>
       </c>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57649426-FE82-48D9-A4AF-269F69A0E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF750C-108E-4BD0-9727-D699AA40D390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Start Time</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>05/28/2022 1:27 P.M.</t>
+  </si>
+  <si>
+    <t>05/28/2022 2:37 P.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished final report. Waiting to hear from Dylan so I can fix current connection method.  </t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1573,9 +1579,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="8">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1.4375</v>
+      </c>
+      <c r="E49" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/docs/time_logs/Stephen_time_log.xlsx
+++ b/docs/time_logs/Stephen_time_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\Senior Project 3\netbsd-wifi-browser\docs\time_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF750C-108E-4BD0-9727-D699AA40D390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D1B02F-3111-4B0D-8140-79B3C0B96787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Start Time</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finished final report. Waiting to hear from Dylan so I can fix current connection method.  </t>
+  </si>
+  <si>
+    <t>05/31/2022 2:49 P.M.</t>
   </si>
 </sst>
 </file>
@@ -810,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1596,6 +1599,11 @@
         <v>134</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
